--- a/FACE_CODING/face_coding_app v1.5.0/Result.xlsx
+++ b/FACE_CODING/face_coding_app v1.5.0/Result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,6 +735,230 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-05-03 09:07:27</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-05-03 09:07:28</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-05-03 09:07:29</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-05-03 09:07:29</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-05-03 09:07:30</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-05-03 09:10:17</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-05-03 09:10:26</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>17 : abassssss</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-05-03 12:00:31</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-05-03 12:00:31</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-05-03 12:00:32</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-05-03 12:38:22</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-05-03 12:38:23</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-05-03 12:38:24</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-05-03 12:38:24</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-05-03 12:38:25</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-05-03 12:38:26</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
